--- a/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ESSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42490</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,19 +802,25 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -848,19 +861,25 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1061,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>18500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,11 +1176,17 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1203,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>22400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-900</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-22400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1318,22 +1385,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-200</v>
       </c>
       <c r="S20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,49 +1417,55 @@
         <v>-400</v>
       </c>
       <c r="F21" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G21" s="3">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="H21" s="3">
         <v>-500</v>
       </c>
       <c r="I21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-19900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-31000</v>
       </c>
       <c r="P21" s="3">
         <v>-1100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,10 +1482,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1415,10 +1494,10 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-19900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-31000</v>
       </c>
       <c r="P23" s="3">
         <v>-1100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-19900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-31000</v>
       </c>
       <c r="P26" s="3">
         <v>-1100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-19900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-31000</v>
       </c>
       <c r="P27" s="3">
         <v>-1100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1954,75 +2093,87 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>200</v>
       </c>
       <c r="S32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-19900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-31000</v>
       </c>
       <c r="P33" s="3">
         <v>-1100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-19900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-31000</v>
       </c>
       <c r="P35" s="3">
         <v>-1100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42490</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2266,22 +2439,28 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2360,16 +2545,16 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,17 +2663,17 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2489,25 +2686,31 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2516,7 +2719,7 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2525,28 +2728,34 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2807,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2648,11 +2863,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2668,17 +2889,17 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2689,11 +2910,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3161,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,22 +3176,22 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -2949,28 +3200,34 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,52 +3270,54 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3064,61 +3325,73 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F58" s="3">
         <v>8200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3147,84 +3420,96 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3265,19 +3550,25 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-72600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-72100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-71700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-71200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-70300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-69600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-68300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-66400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-65600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-64500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-43500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-7800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42490</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-19900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-31000</v>
       </c>
       <c r="P81" s="3">
         <v>-1100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4274,11 +4671,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4969,19 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -4557,46 +4990,52 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4666,11 +5107,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4825,11 +5284,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5546,19 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
@@ -5076,46 +5567,52 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5203,21 +5706,27 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>ESSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42490</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,8 +829,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +891,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,58 +972,61 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>700</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>700</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
+      <c r="T12" s="3">
+        <v>100</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,19 +1084,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1087,47 +1107,50 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>18500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>5100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,11 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-22400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,11 +1392,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1391,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-8500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>-200</v>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-400</v>
@@ -1423,49 +1460,52 @@
         <v>-400</v>
       </c>
       <c r="H21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-31000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1528,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1500,7 +1540,7 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,11 +2136,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2099,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>8500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
       </c>
       <c r="T32" s="3">
         <v>200</v>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42490</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2445,22 +2532,25 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2533,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2551,13 +2644,13 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2669,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2692,11 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2707,22 +2809,22 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2734,28 +2836,31 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2869,11 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2895,14 +3006,14 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>400</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -2916,8 +3027,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3182,7 +3308,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -3191,10 +3317,10 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -3206,28 +3332,31 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3284,43 +3415,43 @@
         <v>2900</v>
       </c>
       <c r="F57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3331,67 +3462,73 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>8600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>800</v>
       </c>
       <c r="R58" s="3">
         <v>800</v>
       </c>
       <c r="S58" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>600</v>
       </c>
       <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3426,90 +3563,96 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3556,19 +3699,22 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-66400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-43500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42490</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4677,11 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,7 +5201,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -4996,46 +5213,49 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5113,11 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5290,11 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,7 +5807,7 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
@@ -5573,46 +5819,49 @@
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5712,21 +5964,24 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>ESSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42582</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42490</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,8 +839,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +904,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,58 +989,61 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>700</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>700</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
+      <c r="U12" s="3">
+        <v>100</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,11 +1118,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1110,47 +1130,50 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>18500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>5100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,11 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-22400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,11 +1429,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1428,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-8500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-200</v>
       </c>
       <c r="U20" s="3">
         <v>-200</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
       </c>
       <c r="G21" s="3">
         <v>-400</v>
@@ -1463,49 +1500,52 @@
         <v>-400</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-31000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1543,7 +1583,7 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,11 +2209,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2172,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>8500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>200</v>
       </c>
       <c r="U32" s="3">
         <v>200</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42582</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42490</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2535,22 +2622,25 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2629,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2647,13 +2740,13 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2771,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2794,11 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2812,22 +2914,22 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -2839,28 +2941,31 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2980,43 +3088,46 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -3030,8 +3141,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3311,7 +3437,7 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -3320,10 +3446,10 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -3335,28 +3461,31 @@
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="E57" s="3">
         <v>2900</v>
@@ -3418,43 +3549,43 @@
         <v>2900</v>
       </c>
       <c r="G57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3465,70 +3596,76 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>800</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
       </c>
       <c r="T58" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
       </c>
       <c r="V58" s="3">
+        <v>600</v>
+      </c>
+      <c r="W58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3566,93 +3703,99 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3702,19 +3845,22 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-73000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-66400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-43500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42582</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42490</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4879,11 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5204,7 +5421,7 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -5216,46 +5433,49 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5337,11 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5523,11 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5810,7 +6056,7 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
@@ -5822,46 +6068,49 @@
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5967,21 +6219,24 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
